--- a/Student_Attendance_Input/FSD_Class_1B.xlsx
+++ b/Student_Attendance_Input/FSD_Class_1B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewj\Documents\UiPath\Project\Student_Attendance_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA037483-E45C-4D72-AF12-D27DCEF6613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06179C2F-EE56-4FFE-BC80-D10D4209DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{174253B0-7304-484F-87A9-F0292919EF14}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>Everett Gates</t>
   </si>
   <si>
-    <t>2401893X</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Hank Boyle</t>
   </si>
   <si>
-    <t>2401588E</t>
-  </si>
-  <si>
     <t>Aliya Haley</t>
   </si>
   <si>
@@ -267,6 +261,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>A401893X</t>
+  </si>
+  <si>
+    <t>B401588E</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,12 +707,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -968,10 +968,10 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -983,7 +983,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -1271,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -1315,25 +1315,25 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -1342,19 +1342,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
         <v>20</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1612,22 +1612,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -1636,25 +1636,25 @@
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N21" t="s">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
         <v>20</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -1862,16 +1862,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -1886,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -1974,7 +1974,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
@@ -1983,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -1992,7 +1992,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
